--- a/biology/Médecine/François_Pelen/François_Pelen.xlsx
+++ b/biology/Médecine/François_Pelen/François_Pelen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Pelen</t>
+          <t>François_Pelen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">François Pelen (né le 25 mai 1957) est un ophtalmologiste et entrepreneur français. Il est le cofondateur et président du conseil de surveillance du groupe Point Vision qui compte une cinquantaine de centres d’ophtalmologie à travers la France[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Pelen (né le 25 mai 1957) est un ophtalmologiste et entrepreneur français. Il est le cofondateur et président du conseil de surveillance du groupe Point Vision qui compte une cinquantaine de centres d’ophtalmologie à travers la France.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Pelen</t>
+          <t>François_Pelen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,25 +525,14 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et études
-François Pelen grandit à Paris, en France. Il fait des études de médecine dont il sort diplômé en ophtalmologie[3].
-En 1991, il obtient un MBA à HEC Paris[4].
-Carrière professionnelle
-Carrière chez Sanofi
-Il rejoint Sanofi en 1984 en tant que directeur de développement. En 1986, il est nommé directeur médical et marketing de Labcatal, filiale de Sanofi. En 1993, il devient directeur médical de Boots Healthcare, avant de prendre en main la direction économique de Searle en 1999[5].
-Carrière chez Pfizer
-En 2000, au sein de Pharmacia puis de Pfizer, il occupe le poste de directeur de la "business unit" du secteur ophtalmologie avant de devenir en 2005, directeur marketing dans le département des neurosciences et de l'urologie. Un an plus tard, il est nommé au poste de vice-président marketing de Pfizer France[6]. Il quitte son poste en 2009[7] pour créer Point Vision.
-Point vision
-En juillet 2011, face à la longueur des délais d’attente pour obtenir un rendez-vous chez un ophtalmologiste et aux tarifs appliqués, François Pelen cofonde avec Patrice Pouts et Raphael Schnitzer, le groupe Point Vision afin de proposer des rendez-vous dans la semaine à un tarif raisonnable[8],[9].
-Dans un premier temps, l’Ordre des médecins de la Ville de Paris réagit en décidant de ne pas autoriser Point Vision à exercer. François Pelen dépose alors un recours auprès du Conseil régional de l’ordre des médecins. Et, en juillet 2013, ce dernier lui donne raison et l’autorise à exercer. Autorisation validée en octobre 2013 par le Conseil national de l'ordre des médecins[10],[11].
-François Pelen développe ainsi des centres chargés de donner de « l’efficacité aux examens et aux consultations des patients »[12]. Il décide de remédier aux déserts médicaux en créant des « postes avancés » et en développant un système de télétransmission de résultats vers des centres plus importants[13],[14].
-En mai 2021, Point Vision signe un partenariat d’un an avec la caisse primaire d'assurance maladie afin d’expérimenter les téléconsultations d'ophtalmologie dans les Hauts-de-France[15],[16].
-En 2023, Point Vision compte cinquante-cinq centres, et emploie un millier de personnes dont sept cents salariés et trois cents ophtalmologues[17].
-Autres informations
-François Pelen est praticien attaché à l'hôpital Henri-Mondor de 1983 à juin 2021[18],[19].
-En 2014, il candidate au poste de président du Syndicat national des ophtalmologistes de France (Snof) dont il est alors l’un des administrateurs[20].
-Il est, depuis 2016, administrateur de Picardie Investissement[21]. Il est aussi, depuis janvier 2022, administrateur non executive de Quantum Genomics.
-Il est membre de la Société française d'ophtalmologie (SFO), de l'Académie américaine d'ophtalmologie (AAO), de l'Association for Research in Vision and Ophthalmology (ARVO) et il est l’un des enseignants du programme Challenge Plus d’HEC Paris[22].
+          <t>Enfance et études</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Pelen grandit à Paris, en France. Il fait des études de médecine dont il sort diplômé en ophtalmologie.
+En 1991, il obtient un MBA à HEC Paris.
 </t>
         </is>
       </c>
@@ -542,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Pelen</t>
+          <t>François_Pelen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -557,14 +558,179 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Carrière chez Sanofi</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il rejoint Sanofi en 1984 en tant que directeur de développement. En 1986, il est nommé directeur médical et marketing de Labcatal, filiale de Sanofi. En 1993, il devient directeur médical de Boots Healthcare, avant de prendre en main la direction économique de Searle en 1999.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>François_Pelen</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Pelen</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière professionnelle</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Carrière chez Pfizer</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2000, au sein de Pharmacia puis de Pfizer, il occupe le poste de directeur de la "business unit" du secteur ophtalmologie avant de devenir en 2005, directeur marketing dans le département des neurosciences et de l'urologie. Un an plus tard, il est nommé au poste de vice-président marketing de Pfizer France. Il quitte son poste en 2009 pour créer Point Vision.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>François_Pelen</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Pelen</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Point vision</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En juillet 2011, face à la longueur des délais d’attente pour obtenir un rendez-vous chez un ophtalmologiste et aux tarifs appliqués, François Pelen cofonde avec Patrice Pouts et Raphael Schnitzer, le groupe Point Vision afin de proposer des rendez-vous dans la semaine à un tarif raisonnable,.
+Dans un premier temps, l’Ordre des médecins de la Ville de Paris réagit en décidant de ne pas autoriser Point Vision à exercer. François Pelen dépose alors un recours auprès du Conseil régional de l’ordre des médecins. Et, en juillet 2013, ce dernier lui donne raison et l’autorise à exercer. Autorisation validée en octobre 2013 par le Conseil national de l'ordre des médecins,.
+François Pelen développe ainsi des centres chargés de donner de « l’efficacité aux examens et aux consultations des patients ». Il décide de remédier aux déserts médicaux en créant des « postes avancés » et en développant un système de télétransmission de résultats vers des centres plus importants,.
+En mai 2021, Point Vision signe un partenariat d’un an avec la caisse primaire d'assurance maladie afin d’expérimenter les téléconsultations d'ophtalmologie dans les Hauts-de-France,.
+En 2023, Point Vision compte cinquante-cinq centres, et emploie un millier de personnes dont sept cents salariés et trois cents ophtalmologues.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>François_Pelen</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Pelen</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres informations</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">François Pelen est praticien attaché à l'hôpital Henri-Mondor de 1983 à juin 2021,.
+En 2014, il candidate au poste de président du Syndicat national des ophtalmologistes de France (Snof) dont il est alors l’un des administrateurs.
+Il est, depuis 2016, administrateur de Picardie Investissement. Il est aussi, depuis janvier 2022, administrateur non executive de Quantum Genomics.
+Il est membre de la Société française d'ophtalmologie (SFO), de l'Académie américaine d'ophtalmologie (AAO), de l'Association for Research in Vision and Ophthalmology (ARVO) et il est l’un des enseignants du programme Challenge Plus d’HEC Paris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>François_Pelen</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fran%C3%A7ois_Pelen</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Crise sanitaire : pourquoi il faut presque tout changer – Le temps du médecin entrepreneur aux éditions Cherche midi[23],[24].
-En 2020, il publie dans Les Echos une tribune intitulée « Pour un Ségur de la médecine en ville » [25].
-Il est également l'auteur de plusieurs publications destinées à des revues scientifiques[19].
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Crise sanitaire : pourquoi il faut presque tout changer – Le temps du médecin entrepreneur aux éditions Cherche midi,.
+En 2020, il publie dans Les Echos une tribune intitulée « Pour un Ségur de la médecine en ville » .
+Il est également l'auteur de plusieurs publications destinées à des revues scientifiques.
 </t>
         </is>
       </c>
